--- a/eval/glue.sst2.llm_annotated.xlsx
+++ b/eval/glue.sst2.llm_annotated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabri\Documents\GitHub\fada\eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87624B3D-C1E3-48A0-BCF0-21F0D2174582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7E1B6B-49F5-4D3A-B7EF-3F52EFCEC9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9710" yWindow="0" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3744,7 +3744,7 @@
   <dimension ref="A1:L499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3787,8 +3787,8 @@
         <v>949</v>
       </c>
       <c r="L1" s="4">
-        <f>AVERAGE(J3:J53)</f>
-        <v>0.71794871794871795</v>
+        <f>AVERAGE(J3:J92)</f>
+        <v>0.73239436619718312</v>
       </c>
     </row>
     <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" ref="J36:J59" si="7">IF(I36=G36,1,0)</f>
+        <f t="shared" ref="J36:J82" si="7">IF(I36=G36,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -5560,8 +5560,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
       <c r="J54">
-        <f>IF(I54=G54,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5592,6 +5595,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
       <c r="J55">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -5624,9 +5630,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I56" s="3">
+        <v>-1</v>
+      </c>
       <c r="J56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
@@ -5656,9 +5665,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I57" s="3">
+        <v>-1</v>
+      </c>
       <c r="J57">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
@@ -5688,9 +5700,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I58" s="3">
+        <v>1</v>
+      </c>
       <c r="J58">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
@@ -5720,9 +5735,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I59" s="3">
+        <v>1</v>
+      </c>
       <c r="J59">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -5781,8 +5799,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
       <c r="J61">
-        <f>IF(I61=G61,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5842,8 +5863,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I63" s="3">
+        <v>0</v>
+      </c>
       <c r="J63">
-        <f t="shared" ref="J63:J68" si="8">IF(I63=G63,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -5874,8 +5898,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I64" s="3">
+        <v>0</v>
+      </c>
       <c r="J64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5906,8 +5933,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I65" s="3">
+        <v>0</v>
+      </c>
       <c r="J65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -5938,9 +5968,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I66" s="3">
+        <v>-1</v>
+      </c>
       <c r="J66">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
@@ -5963,16 +5996,19 @@
         <v>145</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G130" si="9">IF(E67="negative",0,IF(E67="positive",1,-1))</f>
+        <f t="shared" ref="G67:G130" si="8">IF(E67="negative",0,IF(E67="positive",1,-1))</f>
         <v>-1</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H130" si="10">IF(G67=C67,1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="H67:H130" si="9">IF(G67=C67,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="3">
+        <v>-1</v>
       </c>
       <c r="J67">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
@@ -5995,15 +6031,18 @@
         <v>872</v>
       </c>
       <c r="G68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H68">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H68">
-        <f t="shared" si="10"/>
+      <c r="I68" s="3">
         <v>0</v>
       </c>
       <c r="J68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6027,11 +6066,11 @@
         <v>223</v>
       </c>
       <c r="G69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H69">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I69"/>
@@ -6056,16 +6095,19 @@
         <v>94</v>
       </c>
       <c r="G70">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H70">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>-1</v>
       </c>
-      <c r="H70">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="J70">
-        <f t="shared" ref="J70:J74" si="11">IF(I70=G70,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
@@ -6088,16 +6130,19 @@
         <v>580</v>
       </c>
       <c r="G71">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H71">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="3">
         <v>-1</v>
       </c>
-      <c r="H71">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="J71">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
@@ -6120,16 +6165,19 @@
         <v>412</v>
       </c>
       <c r="G72">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H72">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
         <v>-1</v>
       </c>
-      <c r="H72">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="J72">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
@@ -6152,15 +6200,18 @@
         <v>173</v>
       </c>
       <c r="G73">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H73">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H73">
-        <f t="shared" si="10"/>
+      <c r="I73" s="3">
         <v>0</v>
       </c>
       <c r="J73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6184,15 +6235,18 @@
         <v>160</v>
       </c>
       <c r="G74">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H74">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H74">
-        <f t="shared" si="10"/>
+      <c r="I74" s="3">
         <v>0</v>
       </c>
       <c r="J74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6216,11 +6270,11 @@
         <v>535</v>
       </c>
       <c r="G75">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H75">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I75"/>
@@ -6245,15 +6299,18 @@
         <v>769</v>
       </c>
       <c r="G76">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H76">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H76">
-        <f t="shared" si="10"/>
+      <c r="I76" s="3">
         <v>0</v>
       </c>
       <c r="J76">
-        <f t="shared" ref="J76:J82" si="12">IF(I76=G76,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6277,15 +6334,18 @@
         <v>98</v>
       </c>
       <c r="G77">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H77">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H77">
-        <f t="shared" si="10"/>
+      <c r="I77" s="3">
         <v>0</v>
       </c>
       <c r="J77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6309,16 +6369,19 @@
         <v>726</v>
       </c>
       <c r="G78">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H78">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H78">
-        <f t="shared" si="10"/>
-        <v>0</v>
+      <c r="I78" s="3">
+        <v>-1</v>
       </c>
       <c r="J78">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
@@ -6341,15 +6404,18 @@
         <v>102</v>
       </c>
       <c r="G79">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H79">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H79">
-        <f t="shared" si="10"/>
+      <c r="I79" s="3">
         <v>0</v>
       </c>
       <c r="J79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6373,16 +6439,19 @@
         <v>478</v>
       </c>
       <c r="G80">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H80">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I80" s="3">
+        <v>1</v>
       </c>
       <c r="J80">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
@@ -6405,15 +6474,18 @@
         <v>178</v>
       </c>
       <c r="G81">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H81">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H81">
-        <f t="shared" si="10"/>
+      <c r="I81" s="3">
         <v>0</v>
       </c>
       <c r="J81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6437,15 +6509,18 @@
         <v>295</v>
       </c>
       <c r="G82">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H82">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="3">
         <v>0</v>
       </c>
       <c r="J82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6469,11 +6544,11 @@
         <v>584</v>
       </c>
       <c r="G83">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H83">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I83"/>
@@ -6498,11 +6573,11 @@
         <v>427</v>
       </c>
       <c r="G84">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H84">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I84"/>
@@ -6527,15 +6602,18 @@
         <v>398</v>
       </c>
       <c r="G85">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H85">
-        <f t="shared" si="10"/>
+      <c r="I85" s="3">
         <v>0</v>
       </c>
       <c r="J85">
-        <f t="shared" ref="J85:J87" si="13">IF(I85=G85,1,0)</f>
+        <f t="shared" ref="J85:J87" si="10">IF(I85=G85,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6559,16 +6637,19 @@
         <v>894</v>
       </c>
       <c r="G86">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H86">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H86">
+      <c r="I86" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J86">
         <f t="shared" si="10"/>
         <v>0</v>
-      </c>
-      <c r="J86">
-        <f t="shared" si="13"/>
-        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
@@ -6591,15 +6672,18 @@
         <v>203</v>
       </c>
       <c r="G87">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H87">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J87">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6623,11 +6707,11 @@
         <v>78</v>
       </c>
       <c r="G88">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H88">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I88"/>
@@ -6652,15 +6736,18 @@
         <v>254</v>
       </c>
       <c r="G89">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H89">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H89">
-        <f t="shared" si="10"/>
+      <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89">
-        <f t="shared" ref="J89:J92" si="14">IF(I89=G89,1,0)</f>
+        <f t="shared" ref="J89:J92" si="11">IF(I89=G89,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6684,15 +6771,18 @@
         <v>322</v>
       </c>
       <c r="G90">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H90">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H90">
-        <f t="shared" si="10"/>
+      <c r="I90" s="3">
         <v>0</v>
       </c>
       <c r="J90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -6716,15 +6806,18 @@
         <v>465</v>
       </c>
       <c r="G91">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H91">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H91">
-        <f t="shared" si="10"/>
+      <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -6748,15 +6841,18 @@
         <v>297</v>
       </c>
       <c r="G92">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H92">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H92">
-        <f t="shared" si="10"/>
+      <c r="I92" s="3">
         <v>0</v>
       </c>
       <c r="J92">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -6780,11 +6876,11 @@
         <v>410</v>
       </c>
       <c r="G93">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H93">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I93"/>
@@ -6809,15 +6905,15 @@
         <v>817</v>
       </c>
       <c r="G94">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H94">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H94">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="J94">
-        <f t="shared" ref="J94:J96" si="15">IF(I94=G94,1,0)</f>
+        <f t="shared" ref="J94:J96" si="12">IF(I94=G94,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6841,15 +6937,15 @@
         <v>406</v>
       </c>
       <c r="G95">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H95">
         <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6873,15 +6969,15 @@
         <v>788</v>
       </c>
       <c r="G96">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H96">
         <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J96">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6905,11 +7001,11 @@
         <v>499</v>
       </c>
       <c r="G97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H97">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I97"/>
@@ -6934,11 +7030,11 @@
         <v>745</v>
       </c>
       <c r="G98">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H98">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I98"/>
@@ -6963,11 +7059,11 @@
         <v>29</v>
       </c>
       <c r="G99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H99">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I99"/>
@@ -6992,15 +7088,15 @@
         <v>449</v>
       </c>
       <c r="G100">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H100">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H100">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="J100">
-        <f t="shared" ref="J100:J101" si="16">IF(I100=G100,1,0)</f>
+        <f t="shared" ref="J100:J101" si="13">IF(I100=G100,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7024,15 +7120,15 @@
         <v>158</v>
       </c>
       <c r="G101">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H101">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H101">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="J101">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -7056,11 +7152,11 @@
         <v>46</v>
       </c>
       <c r="G102">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H102">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I102"/>
@@ -7085,15 +7181,15 @@
         <v>936</v>
       </c>
       <c r="G103">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H103">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H103">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="J103">
-        <f t="shared" ref="J103:J109" si="17">IF(I103=G103,1,0)</f>
+        <f t="shared" ref="J103:J109" si="14">IF(I103=G103,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7117,15 +7213,15 @@
         <v>524</v>
       </c>
       <c r="G104">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H104">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="J104">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -7149,15 +7245,15 @@
         <v>754</v>
       </c>
       <c r="G105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H105">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H105">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="J105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -7181,15 +7277,15 @@
         <v>423</v>
       </c>
       <c r="G106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H106">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H106">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="J106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -7213,15 +7309,15 @@
         <v>100</v>
       </c>
       <c r="G107">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H107">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H107">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="J107">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -7245,15 +7341,15 @@
         <v>452</v>
       </c>
       <c r="G108">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H108">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H108">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J108">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7277,15 +7373,15 @@
         <v>86</v>
       </c>
       <c r="G109">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H109">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H109">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7309,11 +7405,11 @@
         <v>835</v>
       </c>
       <c r="G110">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H110">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I110"/>
@@ -7338,15 +7434,15 @@
         <v>922</v>
       </c>
       <c r="G111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H111">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H111">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="J111">
-        <f>IF(I111=G111,1,0)</f>
+        <f t="shared" ref="J111" si="15">IF(I111=G111,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7370,11 +7466,11 @@
         <v>645</v>
       </c>
       <c r="G112">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H112">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I112"/>
@@ -7399,15 +7495,15 @@
         <v>76</v>
       </c>
       <c r="G113">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H113">
         <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="H113">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J113">
-        <f t="shared" ref="J113:J118" si="18">IF(I113=G113,1,0)</f>
+        <f t="shared" ref="J113:J118" si="16">IF(I113=G113,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7431,15 +7527,15 @@
         <v>486</v>
       </c>
       <c r="G114">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H114">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H114">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -7463,15 +7559,15 @@
         <v>720</v>
       </c>
       <c r="G115">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H115">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H115">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -7495,15 +7591,15 @@
         <v>911</v>
       </c>
       <c r="G116">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H116">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H116">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="J116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -7527,15 +7623,15 @@
         <v>315</v>
       </c>
       <c r="G117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H117">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H117">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="J117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -7559,15 +7655,15 @@
         <v>48</v>
       </c>
       <c r="G118">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H118">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H118">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="J118">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -7591,11 +7687,11 @@
         <v>543</v>
       </c>
       <c r="G119">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H119">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I119"/>
@@ -7620,15 +7716,15 @@
         <v>104</v>
       </c>
       <c r="G120">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H120">
         <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="H120">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J120">
-        <f t="shared" ref="J120:J121" si="19">IF(I120=G120,1,0)</f>
+        <f t="shared" ref="J120:J121" si="17">IF(I120=G120,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7652,15 +7748,15 @@
         <v>917</v>
       </c>
       <c r="G121">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H121">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H121">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="J121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -7684,11 +7780,11 @@
         <v>892</v>
       </c>
       <c r="G122">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H122">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I122"/>
@@ -7713,11 +7809,11 @@
         <v>474</v>
       </c>
       <c r="G123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H123">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I123"/>
@@ -7742,15 +7838,15 @@
         <v>864</v>
       </c>
       <c r="G124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H124">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H124">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="J124">
-        <f t="shared" ref="J124:J126" si="20">IF(I124=G124,1,0)</f>
+        <f t="shared" ref="J124:J126" si="18">IF(I124=G124,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7774,15 +7870,15 @@
         <v>809</v>
       </c>
       <c r="G125">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H125">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H125">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="J125">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -7806,15 +7902,15 @@
         <v>696</v>
       </c>
       <c r="G126">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H126">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="J126">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -7838,11 +7934,11 @@
         <v>180</v>
       </c>
       <c r="G127">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H127">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I127"/>
@@ -7867,15 +7963,15 @@
         <v>433</v>
       </c>
       <c r="G128">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H128">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H128">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="J128">
-        <f t="shared" ref="J128:J137" si="21">IF(I128=G128,1,0)</f>
+        <f t="shared" ref="J128:J137" si="19">IF(I128=G128,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7899,15 +7995,15 @@
         <v>443</v>
       </c>
       <c r="G129">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H129">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H129">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="J129">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -7931,15 +8027,15 @@
         <v>293</v>
       </c>
       <c r="G130">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H130">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H130">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="J130">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -7963,15 +8059,15 @@
         <v>385</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131" si="22">IF(E131="negative",0,IF(E131="positive",1,-1))</f>
+        <f t="shared" ref="G131" si="20">IF(E131="negative",0,IF(E131="positive",1,-1))</f>
         <v>0</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H194" si="23">IF(G131=C131,1,0)</f>
+        <f t="shared" ref="H131:H194" si="21">IF(G131=C131,1,0)</f>
         <v>0</v>
       </c>
       <c r="J131">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -7995,15 +8091,15 @@
         <v>484</v>
       </c>
       <c r="G132">
-        <f t="shared" ref="G132:G136" si="24">IF(E132="negative",0,IF(E132="positive",1,-1))</f>
+        <f t="shared" ref="G132:G136" si="22">IF(E132="negative",0,IF(E132="positive",1,-1))</f>
         <v>0</v>
       </c>
       <c r="H132">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J132">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -8027,15 +8123,15 @@
         <v>566</v>
       </c>
       <c r="G133">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H133">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J133">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -8059,15 +8155,15 @@
         <v>116</v>
       </c>
       <c r="G134">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H134">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J134">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -8091,15 +8187,15 @@
         <v>687</v>
       </c>
       <c r="G135">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
       <c r="H135">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J135">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8123,15 +8219,15 @@
         <v>194</v>
       </c>
       <c r="G136">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
       <c r="H136">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J136">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8155,15 +8251,15 @@
         <v>76</v>
       </c>
       <c r="G137">
-        <f t="shared" ref="G137:G184" si="25">IF(E137="negative",0,IF(E137="positive",1,-1))</f>
+        <f t="shared" ref="G137:G184" si="23">IF(E137="negative",0,IF(E137="positive",1,-1))</f>
         <v>-1</v>
       </c>
       <c r="H137">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J137">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8187,11 +8283,11 @@
         <v>147</v>
       </c>
       <c r="G138">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H138">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I138"/>
@@ -8216,11 +8312,11 @@
         <v>569</v>
       </c>
       <c r="G139">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H139">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I139"/>
@@ -8245,15 +8341,15 @@
         <v>66</v>
       </c>
       <c r="G140">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H140">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J140">
-        <f>IF(I140=G140,1,0)</f>
+        <f t="shared" ref="J140" si="24">IF(I140=G140,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8277,11 +8373,11 @@
         <v>837</v>
       </c>
       <c r="G141">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H141">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I141"/>
@@ -8306,15 +8402,15 @@
         <v>801</v>
       </c>
       <c r="G142">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H142">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J142">
-        <f t="shared" ref="J142:J145" si="26">IF(I142=G142,1,0)</f>
+        <f t="shared" ref="J142:J145" si="25">IF(I142=G142,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8338,15 +8434,15 @@
         <v>463</v>
       </c>
       <c r="G143">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J143">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J143">
-        <f t="shared" si="26"/>
         <v>1</v>
       </c>
     </row>
@@ -8370,15 +8466,15 @@
         <v>794</v>
       </c>
       <c r="G144">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J144">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J144">
-        <f t="shared" si="26"/>
         <v>1</v>
       </c>
     </row>
@@ -8402,15 +8498,15 @@
         <v>511</v>
       </c>
       <c r="G145">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J145">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J145">
-        <f t="shared" si="26"/>
         <v>1</v>
       </c>
     </row>
@@ -8434,11 +8530,11 @@
         <v>905</v>
       </c>
       <c r="G146">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H146">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I146"/>
@@ -8463,15 +8559,15 @@
         <v>361</v>
       </c>
       <c r="G147">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="H147">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J147">
-        <f t="shared" ref="J147:J150" si="27">IF(I147=G147,1,0)</f>
+        <f t="shared" ref="J147:J150" si="26">IF(I147=G147,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8495,15 +8591,15 @@
         <v>655</v>
       </c>
       <c r="G148">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H148">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J148">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
     </row>
@@ -8527,15 +8623,15 @@
         <v>520</v>
       </c>
       <c r="G149">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="H149">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J149">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -8559,15 +8655,15 @@
         <v>751</v>
       </c>
       <c r="G150">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H150">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J150">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
     </row>
@@ -8591,11 +8687,11 @@
         <v>702</v>
       </c>
       <c r="G151">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="H151">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I151"/>
@@ -8620,15 +8716,15 @@
         <v>369</v>
       </c>
       <c r="G152">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H152">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J152">
-        <f t="shared" ref="J152:J156" si="28">IF(I152=G152,1,0)</f>
+        <f t="shared" ref="J152:J156" si="27">IF(I152=G152,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8652,15 +8748,15 @@
         <v>497</v>
       </c>
       <c r="G153">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H153">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J153">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
     </row>
@@ -8684,15 +8780,15 @@
         <v>556</v>
       </c>
       <c r="G154">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="H154">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J154">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -8716,15 +8812,15 @@
         <v>225</v>
       </c>
       <c r="G155">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H155">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J155">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
     </row>
@@ -8748,15 +8844,15 @@
         <v>135</v>
       </c>
       <c r="G156">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="H156">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J156">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -8780,11 +8876,11 @@
         <v>135</v>
       </c>
       <c r="G157">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H157">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I157"/>
@@ -8809,15 +8905,15 @@
         <v>233</v>
       </c>
       <c r="G158">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H158">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J158">
-        <f t="shared" ref="J158:J161" si="29">IF(I158=G158,1,0)</f>
+        <f t="shared" ref="J158:J161" si="28">IF(I158=G158,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8841,15 +8937,15 @@
         <v>84</v>
       </c>
       <c r="G159">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H159">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J159">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
     </row>
@@ -8873,15 +8969,15 @@
         <v>114</v>
       </c>
       <c r="G160">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H160">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J160">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
     </row>
@@ -8905,15 +9001,15 @@
         <v>582</v>
       </c>
       <c r="G161">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H161">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J161">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
     </row>
@@ -8937,11 +9033,11 @@
         <v>862</v>
       </c>
       <c r="G162">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H162">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I162"/>
@@ -8966,15 +9062,15 @@
         <v>815</v>
       </c>
       <c r="G163">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H163">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J163">
-        <f t="shared" ref="J163:J169" si="30">IF(I163=G163,1,0)</f>
+        <f t="shared" ref="J163:J169" si="29">IF(I163=G163,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8998,15 +9094,15 @@
         <v>104</v>
       </c>
       <c r="G164">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="H164">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J164">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -9030,15 +9126,15 @@
         <v>408</v>
       </c>
       <c r="G165">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="H165">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J165">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -9062,15 +9158,15 @@
         <v>843</v>
       </c>
       <c r="G166">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="H166">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J166">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -9094,15 +9190,15 @@
         <v>625</v>
       </c>
       <c r="G167">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H167">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J167">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
     </row>
@@ -9126,15 +9222,15 @@
         <v>120</v>
       </c>
       <c r="G168">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="H168">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J168">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -9158,15 +9254,15 @@
         <v>339</v>
       </c>
       <c r="G169">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H169">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J169">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
     </row>
@@ -9190,11 +9286,11 @@
         <v>482</v>
       </c>
       <c r="G170">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H170">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I170"/>
@@ -9219,15 +9315,15 @@
         <v>120</v>
       </c>
       <c r="G171">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="H171">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J171">
-        <f t="shared" ref="J171:J176" si="31">IF(I171=G171,1,0)</f>
+        <f t="shared" ref="J171:J176" si="30">IF(I171=G171,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9251,15 +9347,15 @@
         <v>552</v>
       </c>
       <c r="G172">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="H172">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J172">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -9283,15 +9379,15 @@
         <v>547</v>
       </c>
       <c r="G173">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="H173">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J173">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -9315,15 +9411,15 @@
         <v>805</v>
       </c>
       <c r="G174">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H174">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J174">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
@@ -9347,15 +9443,15 @@
         <v>765</v>
       </c>
       <c r="G175">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H175">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J175">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
@@ -9379,15 +9475,15 @@
         <v>896</v>
       </c>
       <c r="G176">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H176">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J176">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
@@ -9411,11 +9507,11 @@
         <v>393</v>
       </c>
       <c r="G177">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H177">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I177"/>
@@ -9440,15 +9536,15 @@
         <v>355</v>
       </c>
       <c r="G178">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H178">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J178">
-        <f t="shared" ref="J178:J181" si="32">IF(I178=G178,1,0)</f>
+        <f t="shared" ref="J178:J181" si="31">IF(I178=G178,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -9472,15 +9568,15 @@
         <v>741</v>
       </c>
       <c r="G179">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H179">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J179">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
     </row>
@@ -9504,15 +9600,15 @@
         <v>190</v>
       </c>
       <c r="G180">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H180">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J180">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
     </row>
@@ -9536,15 +9632,15 @@
         <v>76</v>
       </c>
       <c r="G181">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="H181">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J181">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -9568,11 +9664,11 @@
         <v>884</v>
       </c>
       <c r="G182">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H182">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I182"/>
@@ -9597,11 +9693,11 @@
         <v>349</v>
       </c>
       <c r="G183">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H183">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I183"/>
@@ -9626,15 +9722,15 @@
         <v>145</v>
       </c>
       <c r="G184">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="H184">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J184">
-        <f t="shared" ref="J184:J185" si="33">IF(I184=G184,1,0)</f>
+        <f t="shared" ref="J184:J185" si="32">IF(I184=G184,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9658,15 +9754,15 @@
         <v>913</v>
       </c>
       <c r="G185">
-        <f t="shared" ref="G185:G191" si="34">IF(E185="negative",0,IF(E185="positive",1,-1))</f>
+        <f t="shared" ref="G185:G191" si="33">IF(E185="negative",0,IF(E185="positive",1,-1))</f>
         <v>1</v>
       </c>
       <c r="H185">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J185">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -9690,11 +9786,11 @@
         <v>143</v>
       </c>
       <c r="G186">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="H186">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I186"/>
@@ -9719,15 +9815,15 @@
         <v>120</v>
       </c>
       <c r="G187">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>-1</v>
       </c>
       <c r="H187">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J187">
-        <f t="shared" ref="J187:J190" si="35">IF(I187=G187,1,0)</f>
+        <f t="shared" ref="J187:J190" si="34">IF(I187=G187,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9751,15 +9847,15 @@
         <v>680</v>
       </c>
       <c r="G188">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J188">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="H188">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J188">
-        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
@@ -9783,15 +9879,15 @@
         <v>112</v>
       </c>
       <c r="G189">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J189">
         <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="H189">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J189">
-        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -9815,15 +9911,15 @@
         <v>27</v>
       </c>
       <c r="G190">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J190">
         <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="H190">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J190">
-        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -9847,11 +9943,11 @@
         <v>171</v>
       </c>
       <c r="G191">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="H191">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I191"/>
@@ -9876,15 +9972,15 @@
         <v>812</v>
       </c>
       <c r="G192">
-        <f t="shared" ref="G192:G215" si="36">IF(E192="negative",0,IF(E192="positive",1,-1))</f>
+        <f t="shared" ref="G192:G215" si="35">IF(E192="negative",0,IF(E192="positive",1,-1))</f>
         <v>-1</v>
       </c>
       <c r="H192">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J192">
-        <f t="shared" ref="J192:J194" si="37">IF(I192=G192,1,0)</f>
+        <f t="shared" ref="J192:J194" si="36">IF(I192=G192,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9908,15 +10004,15 @@
         <v>58</v>
       </c>
       <c r="G193">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J193">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="H193">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J193">
-        <f t="shared" si="37"/>
         <v>1</v>
       </c>
     </row>
@@ -9940,15 +10036,15 @@
         <v>870</v>
       </c>
       <c r="G194">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J194">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="H194">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J194">
-        <f t="shared" si="37"/>
         <v>1</v>
       </c>
     </row>
@@ -9972,11 +10068,11 @@
         <v>926</v>
       </c>
       <c r="G195">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H195">
-        <f t="shared" ref="H195:H258" si="38">IF(G195=C195,1,0)</f>
+        <f t="shared" ref="H195:H258" si="37">IF(G195=C195,1,0)</f>
         <v>1</v>
       </c>
       <c r="I195"/>
@@ -10001,11 +10097,11 @@
         <v>64</v>
       </c>
       <c r="G196">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H196">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I196"/>
@@ -10030,11 +10126,11 @@
         <v>868</v>
       </c>
       <c r="G197">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H197">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I197"/>
@@ -10059,11 +10155,11 @@
         <v>217</v>
       </c>
       <c r="G198">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H198">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I198"/>
@@ -10088,15 +10184,15 @@
         <v>32</v>
       </c>
       <c r="G199">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>-1</v>
       </c>
       <c r="H199">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J199">
-        <f t="shared" ref="J199:J200" si="39">IF(I199=G199,1,0)</f>
+        <f t="shared" ref="J199:J200" si="38">IF(I199=G199,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10120,15 +10216,15 @@
         <v>42</v>
       </c>
       <c r="G200">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="H200">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J200">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J200">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -10152,11 +10248,11 @@
         <v>131</v>
       </c>
       <c r="G201">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="H201">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I201"/>
@@ -10181,15 +10277,15 @@
         <v>903</v>
       </c>
       <c r="G202">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H202">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J202">
-        <f t="shared" ref="J202:J203" si="40">IF(I202=G202,1,0)</f>
+        <f t="shared" ref="J202:J203" si="39">IF(I202=G202,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10213,15 +10309,15 @@
         <v>749</v>
       </c>
       <c r="G203">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H203">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J203">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -10245,11 +10341,11 @@
         <v>637</v>
       </c>
       <c r="G204">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="H204">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I204"/>
@@ -10274,15 +10370,15 @@
         <v>120</v>
       </c>
       <c r="G205">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>-1</v>
       </c>
       <c r="H205">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J205">
-        <f t="shared" ref="J205:J212" si="41">IF(I205=G205,1,0)</f>
+        <f t="shared" ref="J205:J212" si="40">IF(I205=G205,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10306,15 +10402,15 @@
         <v>175</v>
       </c>
       <c r="G206">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H206">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J206">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
     </row>
@@ -10338,15 +10434,15 @@
         <v>280</v>
       </c>
       <c r="G207">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H207">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J207">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
     </row>
@@ -10370,15 +10466,15 @@
         <v>125</v>
       </c>
       <c r="G208">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>-1</v>
       </c>
       <c r="H208">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J208">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -10402,15 +10498,15 @@
         <v>76</v>
       </c>
       <c r="G209">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>-1</v>
       </c>
       <c r="H209">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J209">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -10434,15 +10530,15 @@
         <v>196</v>
       </c>
       <c r="G210">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="H210">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J210">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -10466,15 +10562,15 @@
         <v>330</v>
       </c>
       <c r="G211">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="H211">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J211">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -10498,15 +10594,15 @@
         <v>335</v>
       </c>
       <c r="G212">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="H212">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J212">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -10530,11 +10626,11 @@
         <v>207</v>
       </c>
       <c r="G213">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H213">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I213"/>
@@ -10559,15 +10655,15 @@
         <v>938</v>
       </c>
       <c r="G214">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H214">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J214">
-        <f t="shared" ref="J214:J215" si="42">IF(I214=G214,1,0)</f>
+        <f t="shared" ref="J214:J215" si="41">IF(I214=G214,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10591,15 +10687,15 @@
         <v>447</v>
       </c>
       <c r="G215">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H215">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J215">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -10623,11 +10719,11 @@
         <v>64</v>
       </c>
       <c r="G216">
-        <f t="shared" ref="G216:G220" si="43">IF(E216="negative",0,IF(E216="positive",1,-1))</f>
+        <f t="shared" ref="G216:G220" si="42">IF(E216="negative",0,IF(E216="positive",1,-1))</f>
         <v>0</v>
       </c>
       <c r="H216">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I216"/>
@@ -10652,15 +10748,15 @@
         <v>60</v>
       </c>
       <c r="G217">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="H217">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J217">
-        <f t="shared" ref="J217:J219" si="44">IF(I217=G217,1,0)</f>
+        <f t="shared" ref="J217:J219" si="43">IF(I217=G217,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10684,15 +10780,15 @@
         <v>665</v>
       </c>
       <c r="G218">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J218">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="H218">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J218">
-        <f t="shared" si="44"/>
         <v>1</v>
       </c>
     </row>
@@ -10716,15 +10812,15 @@
         <v>674</v>
       </c>
       <c r="G219">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J219">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="H219">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J219">
-        <f t="shared" si="44"/>
         <v>1</v>
       </c>
     </row>
@@ -10748,11 +10844,11 @@
         <v>831</v>
       </c>
       <c r="G220">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="H220">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I220"/>
@@ -10777,15 +10873,15 @@
         <v>240</v>
       </c>
       <c r="G221">
-        <f t="shared" ref="G221:G284" si="45">IF(E221="negative",0,IF(E221="positive",1,-1))</f>
+        <f t="shared" ref="G221:G284" si="44">IF(E221="negative",0,IF(E221="positive",1,-1))</f>
         <v>-1</v>
       </c>
       <c r="H221">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J221">
-        <f t="shared" ref="J221:J229" si="46">IF(I221=G221,1,0)</f>
+        <f t="shared" ref="J221:J229" si="45">IF(I221=G221,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10809,15 +10905,15 @@
         <v>747</v>
       </c>
       <c r="G222">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J222">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="H222">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J222">
-        <f t="shared" si="46"/>
         <v>1</v>
       </c>
     </row>
@@ -10841,15 +10937,15 @@
         <v>94</v>
       </c>
       <c r="G223">
+        <f t="shared" si="44"/>
+        <v>-1</v>
+      </c>
+      <c r="H223">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J223">
         <f t="shared" si="45"/>
-        <v>-1</v>
-      </c>
-      <c r="H223">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J223">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -10873,15 +10969,15 @@
         <v>361</v>
       </c>
       <c r="G224">
+        <f t="shared" si="44"/>
+        <v>-1</v>
+      </c>
+      <c r="H224">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J224">
         <f t="shared" si="45"/>
-        <v>-1</v>
-      </c>
-      <c r="H224">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J224">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -10905,15 +11001,15 @@
         <v>211</v>
       </c>
       <c r="G225">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J225">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="H225">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J225">
-        <f t="shared" si="46"/>
         <v>1</v>
       </c>
     </row>
@@ -10937,15 +11033,15 @@
         <v>807</v>
       </c>
       <c r="G226">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J226">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="H226">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J226">
-        <f t="shared" si="46"/>
         <v>1</v>
       </c>
     </row>
@@ -10969,15 +11065,15 @@
         <v>445</v>
       </c>
       <c r="G227">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J227">
         <f t="shared" si="45"/>
-        <v>1</v>
-      </c>
-      <c r="H227">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J227">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -11001,15 +11097,15 @@
         <v>18</v>
       </c>
       <c r="G228">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J228">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="H228">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J228">
-        <f t="shared" si="46"/>
         <v>1</v>
       </c>
     </row>
@@ -11033,15 +11129,15 @@
         <v>669</v>
       </c>
       <c r="G229">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J229">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="H229">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J229">
-        <f t="shared" si="46"/>
         <v>1</v>
       </c>
     </row>
@@ -11065,11 +11161,11 @@
         <v>598</v>
       </c>
       <c r="G230">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="H230">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I230"/>
@@ -11094,15 +11190,15 @@
         <v>127</v>
       </c>
       <c r="G231">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H231">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J231">
-        <f t="shared" ref="J231:J244" si="47">IF(I231=G231,1,0)</f>
+        <f t="shared" ref="J231:J244" si="46">IF(I231=G231,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -11126,15 +11222,15 @@
         <v>64</v>
       </c>
       <c r="G232">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H232">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J232">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
     </row>
@@ -11158,15 +11254,15 @@
         <v>351</v>
       </c>
       <c r="G233">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="H233">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J233">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -11190,15 +11286,15 @@
         <v>890</v>
       </c>
       <c r="G234">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H234">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J234">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
     </row>
@@ -11222,15 +11318,15 @@
         <v>550</v>
       </c>
       <c r="G235">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H235">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J235">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
     </row>
@@ -11254,15 +11350,15 @@
         <v>783</v>
       </c>
       <c r="G236">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H236">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J236">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
     </row>
@@ -11286,15 +11382,15 @@
         <v>286</v>
       </c>
       <c r="G237">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H237">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J237">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
     </row>
@@ -11318,15 +11414,15 @@
         <v>537</v>
       </c>
       <c r="G238">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H238">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J238">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
     </row>
@@ -11350,15 +11446,15 @@
         <v>494</v>
       </c>
       <c r="G239">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H239">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J239">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
     </row>
@@ -11382,15 +11478,15 @@
         <v>188</v>
       </c>
       <c r="G240">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H240">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J240">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
     </row>
@@ -11414,15 +11510,15 @@
         <v>192</v>
       </c>
       <c r="G241">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="H241">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J241">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -11446,15 +11542,15 @@
         <v>310</v>
       </c>
       <c r="G242">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="H242">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J242">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -11478,15 +11574,15 @@
         <v>657</v>
       </c>
       <c r="G243">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H243">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J243">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
     </row>
@@ -11510,15 +11606,15 @@
         <v>145</v>
       </c>
       <c r="G244">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
       <c r="H244">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J244">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -11542,11 +11638,11 @@
         <v>847</v>
       </c>
       <c r="G245">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="H245">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I245"/>
@@ -11571,11 +11667,11 @@
         <v>64</v>
       </c>
       <c r="G246">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H246">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I246"/>
@@ -11600,15 +11696,15 @@
         <v>730</v>
       </c>
       <c r="G247">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H247">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J247">
-        <f t="shared" ref="J247:J251" si="48">IF(I247=G247,1,0)</f>
+        <f t="shared" ref="J247:J251" si="47">IF(I247=G247,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -11632,15 +11728,15 @@
         <v>141</v>
       </c>
       <c r="G248">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="H248">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J248">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
@@ -11664,15 +11760,15 @@
         <v>600</v>
       </c>
       <c r="G249">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H249">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J249">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
     </row>
@@ -11696,15 +11792,15 @@
         <v>62</v>
       </c>
       <c r="G250">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H250">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J250">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
     </row>
@@ -11728,15 +11824,15 @@
         <v>16</v>
       </c>
       <c r="G251">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H251">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J251">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
     </row>
@@ -11760,11 +11856,11 @@
         <v>230</v>
       </c>
       <c r="G252">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H252">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I252"/>
@@ -11789,11 +11885,11 @@
         <v>88</v>
       </c>
       <c r="G253">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H253">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I253"/>
@@ -11818,15 +11914,15 @@
         <v>357</v>
       </c>
       <c r="G254">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H254">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J254">
-        <f t="shared" ref="J254:J255" si="49">IF(I254=G254,1,0)</f>
+        <f t="shared" ref="J254:J255" si="48">IF(I254=G254,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -11850,15 +11946,15 @@
         <v>135</v>
       </c>
       <c r="G255">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
       <c r="H255">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J255">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -11882,11 +11978,11 @@
         <v>743</v>
       </c>
       <c r="G256">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H256">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I256"/>
@@ -11911,15 +12007,15 @@
         <v>184</v>
       </c>
       <c r="G257">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H257">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J257">
-        <f t="shared" ref="J257:J260" si="50">IF(I257=G257,1,0)</f>
+        <f t="shared" ref="J257:J260" si="49">IF(I257=G257,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -11943,15 +12039,15 @@
         <v>758</v>
       </c>
       <c r="G258">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H258">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J258">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
     </row>
@@ -11975,15 +12071,15 @@
         <v>120</v>
       </c>
       <c r="G259">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
       <c r="H259">
-        <f t="shared" ref="H259:H322" si="51">IF(G259=C259,1,0)</f>
+        <f t="shared" ref="H259:H322" si="50">IF(G259=C259,1,0)</f>
         <v>0</v>
       </c>
       <c r="J259">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -12007,15 +12103,15 @@
         <v>262</v>
       </c>
       <c r="G260">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H260">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J260">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
     </row>
@@ -12039,11 +12135,11 @@
         <v>236</v>
       </c>
       <c r="G261">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H261">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="I261"/>
@@ -12068,15 +12164,15 @@
         <v>739</v>
       </c>
       <c r="G262">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H262">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J262">
-        <f>IF(I262=G262,1,0)</f>
+        <f t="shared" ref="J262" si="51">IF(I262=G262,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -12100,11 +12196,11 @@
         <v>577</v>
       </c>
       <c r="G263">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H263">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="I263"/>
@@ -12129,11 +12225,11 @@
         <v>34</v>
       </c>
       <c r="G264">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="H264">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J264">
@@ -12161,11 +12257,11 @@
         <v>305</v>
       </c>
       <c r="G265">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H265">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J265">
@@ -12193,11 +12289,11 @@
         <v>777</v>
       </c>
       <c r="G266">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H266">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="I266"/>
@@ -12222,15 +12318,15 @@
         <v>412</v>
       </c>
       <c r="G267">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
       <c r="H267">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J267">
-        <f>IF(I267=G267,1,0)</f>
+        <f t="shared" ref="J267" si="53">IF(I267=G267,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12254,11 +12350,11 @@
         <v>10</v>
       </c>
       <c r="G268">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H268">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="I268"/>
@@ -12283,15 +12379,15 @@
         <v>80</v>
       </c>
       <c r="G269">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H269">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J269">
-        <f>IF(I269=G269,1,0)</f>
+        <f t="shared" ref="J269" si="54">IF(I269=G269,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -12315,11 +12411,11 @@
         <v>829</v>
       </c>
       <c r="G270">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="H270">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="I270"/>
@@ -12344,15 +12440,15 @@
         <v>845</v>
       </c>
       <c r="G271">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="H271">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J271">
-        <f t="shared" ref="J271:J272" si="53">IF(I271=G271,1,0)</f>
+        <f t="shared" ref="J271:J272" si="55">IF(I271=G271,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12376,15 +12472,15 @@
         <v>850</v>
       </c>
       <c r="G272">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H272">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J272">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
     </row>
@@ -12408,11 +12504,11 @@
         <v>213</v>
       </c>
       <c r="G273">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H273">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="I273"/>
@@ -12437,11 +12533,11 @@
         <v>888</v>
       </c>
       <c r="G274">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H274">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="I274"/>
@@ -12466,11 +12562,11 @@
         <v>313</v>
       </c>
       <c r="G275">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H275">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="I275"/>
@@ -12495,15 +12591,15 @@
         <v>377</v>
       </c>
       <c r="G276">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H276">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J276">
-        <f t="shared" ref="J276:J278" si="54">IF(I276=G276,1,0)</f>
+        <f t="shared" ref="J276:J278" si="56">IF(I276=G276,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -12527,15 +12623,15 @@
         <v>931</v>
       </c>
       <c r="G277">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H277">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J277">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
     </row>
@@ -12559,15 +12655,15 @@
         <v>700</v>
       </c>
       <c r="G278">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H278">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J278">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
     </row>
@@ -12591,11 +12687,11 @@
         <v>68</v>
       </c>
       <c r="G279">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="H279">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="I279"/>
@@ -12620,11 +12716,11 @@
         <v>221</v>
       </c>
       <c r="G280">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H280">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="I280"/>
@@ -12649,15 +12745,15 @@
         <v>371</v>
       </c>
       <c r="G281">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
       <c r="H281">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J281">
-        <f>IF(I281=G281,1,0)</f>
+        <f t="shared" ref="J281" si="57">IF(I281=G281,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12681,11 +12777,11 @@
         <v>798</v>
       </c>
       <c r="G282">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H282">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="I282"/>
@@ -12710,15 +12806,15 @@
         <v>64</v>
       </c>
       <c r="G283">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H283">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J283">
-        <f t="shared" ref="J283:J284" si="55">IF(I283=G283,1,0)</f>
+        <f t="shared" ref="J283:J284" si="58">IF(I283=G283,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -12742,15 +12838,15 @@
         <v>691</v>
       </c>
       <c r="G284">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="H284">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J284">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
     </row>
@@ -12774,11 +12870,11 @@
         <v>198</v>
       </c>
       <c r="G285">
-        <f t="shared" ref="G285:G348" si="56">IF(E285="negative",0,IF(E285="positive",1,-1))</f>
+        <f t="shared" ref="G285:G348" si="59">IF(E285="negative",0,IF(E285="positive",1,-1))</f>
         <v>0</v>
       </c>
       <c r="H285">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="I285"/>
@@ -12803,11 +12899,11 @@
         <v>106</v>
       </c>
       <c r="G286">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H286">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="I286"/>
@@ -12832,11 +12928,11 @@
         <v>841</v>
       </c>
       <c r="G287">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H287">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="I287"/>
@@ -12861,15 +12957,15 @@
         <v>104</v>
       </c>
       <c r="G288">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>-1</v>
       </c>
       <c r="H288">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J288">
-        <f t="shared" ref="J288:J290" si="57">IF(I288=G288,1,0)</f>
+        <f t="shared" ref="J288:J290" si="60">IF(I288=G288,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12893,15 +12989,15 @@
         <v>156</v>
       </c>
       <c r="G289">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="H289">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J289">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>
@@ -12925,15 +13021,15 @@
         <v>186</v>
       </c>
       <c r="G290">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H290">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J290">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
     </row>
@@ -12957,11 +13053,11 @@
         <v>641</v>
       </c>
       <c r="G291">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H291">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="I291"/>
@@ -12986,15 +13082,15 @@
         <v>627</v>
       </c>
       <c r="G292">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H292">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J292">
-        <f t="shared" ref="J292:J307" si="58">IF(I292=G292,1,0)</f>
+        <f t="shared" ref="J292:J307" si="61">IF(I292=G292,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -13018,15 +13114,15 @@
         <v>12</v>
       </c>
       <c r="G293">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H293">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J293">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
     </row>
@@ -13050,15 +13146,15 @@
         <v>790</v>
       </c>
       <c r="G294">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H294">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J294">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
     </row>
@@ -13082,15 +13178,15 @@
         <v>209</v>
       </c>
       <c r="G295">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H295">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J295">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
     </row>
@@ -13114,15 +13210,15 @@
         <v>14</v>
       </c>
       <c r="G296">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H296">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J296">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
     </row>
@@ -13146,15 +13242,15 @@
         <v>760</v>
       </c>
       <c r="G297">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="H297">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J297">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
@@ -13178,15 +13274,15 @@
         <v>559</v>
       </c>
       <c r="G298">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="H298">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J298">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
@@ -13210,15 +13306,15 @@
         <v>734</v>
       </c>
       <c r="G299">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H299">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J299">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
     </row>
@@ -13242,15 +13338,15 @@
         <v>64</v>
       </c>
       <c r="G300">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H300">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J300">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
     </row>
@@ -13274,15 +13370,15 @@
         <v>651</v>
       </c>
       <c r="G301">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H301">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J301">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
     </row>
@@ -13306,15 +13402,15 @@
         <v>182</v>
       </c>
       <c r="G302">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H302">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J302">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
     </row>
@@ -13338,15 +13434,15 @@
         <v>104</v>
       </c>
       <c r="G303">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>-1</v>
       </c>
       <c r="H303">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J303">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
@@ -13370,15 +13466,15 @@
         <v>722</v>
       </c>
       <c r="G304">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H304">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J304">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
     </row>
@@ -13402,15 +13498,15 @@
         <v>522</v>
       </c>
       <c r="G305">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H305">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J305">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
     </row>
@@ -13434,15 +13530,15 @@
         <v>123</v>
       </c>
       <c r="G306">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H306">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J306">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
     </row>
@@ -13466,15 +13562,15 @@
         <v>240</v>
       </c>
       <c r="G307">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>-1</v>
       </c>
       <c r="H307">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J307">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
@@ -13498,11 +13594,11 @@
         <v>786</v>
       </c>
       <c r="G308">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="H308">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="I308"/>
@@ -13527,11 +13623,11 @@
         <v>200</v>
       </c>
       <c r="G309">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H309">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="I309"/>
@@ -13556,15 +13652,15 @@
         <v>135</v>
       </c>
       <c r="G310">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>-1</v>
       </c>
       <c r="H310">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J310">
-        <f t="shared" ref="J310:J318" si="59">IF(I310=G310,1,0)</f>
+        <f t="shared" ref="J310:J318" si="62">IF(I310=G310,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -13588,15 +13684,15 @@
         <v>52</v>
       </c>
       <c r="G311">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="H311">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J311">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
@@ -13620,15 +13716,15 @@
         <v>32</v>
       </c>
       <c r="G312">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>-1</v>
       </c>
       <c r="H312">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J312">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
@@ -13652,15 +13748,15 @@
         <v>32</v>
       </c>
       <c r="G313">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>-1</v>
       </c>
       <c r="H313">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J313">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
@@ -13684,15 +13780,15 @@
         <v>513</v>
       </c>
       <c r="G314">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H314">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J314">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
     </row>
@@ -13716,15 +13812,15 @@
         <v>929</v>
       </c>
       <c r="G315">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H315">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J315">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
     </row>
@@ -13748,15 +13844,15 @@
         <v>775</v>
       </c>
       <c r="G316">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H316">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J316">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
     </row>
@@ -13780,15 +13876,15 @@
         <v>317</v>
       </c>
       <c r="G317">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>-1</v>
       </c>
       <c r="H317">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J317">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
@@ -13812,15 +13908,15 @@
         <v>792</v>
       </c>
       <c r="G318">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H318">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J318">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
     </row>
@@ -13844,11 +13940,11 @@
         <v>535</v>
       </c>
       <c r="G319">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H319">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="I319"/>
@@ -13873,11 +13969,11 @@
         <v>827</v>
       </c>
       <c r="G320">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H320">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="I320"/>
@@ -13902,11 +13998,11 @@
         <v>375</v>
       </c>
       <c r="G321">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H321">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="I321"/>
@@ -13931,11 +14027,11 @@
         <v>303</v>
       </c>
       <c r="G322">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H322">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="I322"/>
@@ -13960,15 +14056,15 @@
         <v>716</v>
       </c>
       <c r="G323">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H323">
-        <f t="shared" ref="H323:H386" si="60">IF(G323=C323,1,0)</f>
+        <f t="shared" ref="H323:H386" si="63">IF(G323=C323,1,0)</f>
         <v>0</v>
       </c>
       <c r="J323">
-        <f t="shared" ref="J323:J324" si="61">IF(I323=G323,1,0)</f>
+        <f t="shared" ref="J323:J324" si="64">IF(I323=G323,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -13992,15 +14088,15 @@
         <v>104</v>
       </c>
       <c r="G324">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>-1</v>
       </c>
       <c r="H324">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J324">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
     </row>
@@ -14024,11 +14120,11 @@
         <v>852</v>
       </c>
       <c r="G325">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H325">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="I325"/>
@@ -14053,11 +14149,11 @@
         <v>880</v>
       </c>
       <c r="G326">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="H326">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="I326"/>
@@ -14082,15 +14178,15 @@
         <v>215</v>
       </c>
       <c r="G327">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H327">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J327">
-        <f t="shared" ref="J327:J331" si="62">IF(I327=G327,1,0)</f>
+        <f t="shared" ref="J327:J331" si="65">IF(I327=G327,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -14114,15 +14210,15 @@
         <v>44</v>
       </c>
       <c r="G328">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="H328">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J328">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -14146,15 +14242,15 @@
         <v>876</v>
       </c>
       <c r="G329">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H329">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J329">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
     </row>
@@ -14178,15 +14274,15 @@
         <v>756</v>
       </c>
       <c r="G330">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H330">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J330">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
     </row>
@@ -14210,15 +14306,15 @@
         <v>490</v>
       </c>
       <c r="G331">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H331">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J331">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
     </row>
@@ -14242,11 +14338,11 @@
         <v>592</v>
       </c>
       <c r="G332">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H332">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="I332"/>
@@ -14271,15 +14367,15 @@
         <v>942</v>
       </c>
       <c r="G333">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H333">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J333">
-        <f t="shared" ref="J333:J338" si="63">IF(I333=G333,1,0)</f>
+        <f t="shared" ref="J333:J338" si="66">IF(I333=G333,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -14303,15 +14399,15 @@
         <v>332</v>
       </c>
       <c r="G334">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H334">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J334">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
     </row>
@@ -14335,15 +14431,15 @@
         <v>439</v>
       </c>
       <c r="G335">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H335">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J335">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
     </row>
@@ -14367,15 +14463,15 @@
         <v>64</v>
       </c>
       <c r="G336">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H336">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J336">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
     </row>
@@ -14399,15 +14495,15 @@
         <v>607</v>
       </c>
       <c r="G337">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H337">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J337">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
     </row>
@@ -14431,15 +14527,15 @@
         <v>90</v>
       </c>
       <c r="G338">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="H338">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J338">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
     </row>
@@ -14463,11 +14559,11 @@
         <v>698</v>
       </c>
       <c r="G339">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H339">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="I339"/>
@@ -14492,15 +14588,15 @@
         <v>672</v>
       </c>
       <c r="G340">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H340">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J340">
-        <f t="shared" ref="J340:J347" si="64">IF(I340=G340,1,0)</f>
+        <f t="shared" ref="J340:J347" si="67">IF(I340=G340,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -14524,15 +14620,15 @@
         <v>533</v>
       </c>
       <c r="G341">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H341">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J341">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
     </row>
@@ -14556,15 +14652,15 @@
         <v>711</v>
       </c>
       <c r="G342">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H342">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J342">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
     </row>
@@ -14588,15 +14684,15 @@
         <v>135</v>
       </c>
       <c r="G343">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>-1</v>
       </c>
       <c r="H343">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J343">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
     </row>
@@ -14620,15 +14716,15 @@
         <v>273</v>
       </c>
       <c r="G344">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H344">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J344">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
     </row>
@@ -14652,15 +14748,15 @@
         <v>412</v>
       </c>
       <c r="G345">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>-1</v>
       </c>
       <c r="H345">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J345">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
     </row>
@@ -14684,15 +14780,15 @@
         <v>400</v>
       </c>
       <c r="G346">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H346">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J346">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
     </row>
@@ -14716,15 +14812,15 @@
         <v>682</v>
       </c>
       <c r="G347">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>-1</v>
       </c>
       <c r="H347">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J347">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
     </row>
@@ -14748,11 +14844,11 @@
         <v>604</v>
       </c>
       <c r="G348">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H348">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="I348"/>
@@ -14777,15 +14873,15 @@
         <v>82</v>
       </c>
       <c r="G349">
-        <f t="shared" ref="G349:G412" si="65">IF(E349="negative",0,IF(E349="positive",1,-1))</f>
+        <f t="shared" ref="G349:G412" si="68">IF(E349="negative",0,IF(E349="positive",1,-1))</f>
         <v>0</v>
       </c>
       <c r="H349">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J349">
-        <f t="shared" ref="J349:J351" si="66">IF(I349=G349,1,0)</f>
+        <f t="shared" ref="J349:J351" si="69">IF(I349=G349,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -14809,15 +14905,15 @@
         <v>940</v>
       </c>
       <c r="G350">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H350">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J350">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
     </row>
@@ -14841,15 +14937,15 @@
         <v>623</v>
       </c>
       <c r="G351">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H351">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J351">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
     </row>
@@ -14873,11 +14969,11 @@
         <v>689</v>
       </c>
       <c r="G352">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H352">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="I352"/>
@@ -14902,11 +14998,11 @@
         <v>40</v>
       </c>
       <c r="G353">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H353">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="I353"/>
@@ -14931,15 +15027,15 @@
         <v>104</v>
       </c>
       <c r="G354">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="H354">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J354">
-        <f>IF(I354=G354,1,0)</f>
+        <f t="shared" ref="J354" si="70">IF(I354=G354,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -14963,11 +15059,11 @@
         <v>633</v>
       </c>
       <c r="G355">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H355">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="I355"/>
@@ -14992,11 +15088,11 @@
         <v>137</v>
       </c>
       <c r="G356">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H356">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="I356"/>
@@ -15021,11 +15117,11 @@
         <v>320</v>
       </c>
       <c r="G357">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H357">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="I357"/>
@@ -15050,15 +15146,15 @@
         <v>718</v>
       </c>
       <c r="G358">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H358">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J358">
-        <f t="shared" ref="J358:J365" si="67">IF(I358=G358,1,0)</f>
+        <f t="shared" ref="J358:J365" si="71">IF(I358=G358,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -15082,15 +15178,15 @@
         <v>246</v>
       </c>
       <c r="G359">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H359">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J359">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
     </row>
@@ -15114,15 +15210,15 @@
         <v>267</v>
       </c>
       <c r="G360">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H360">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J360">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
     </row>
@@ -15146,15 +15242,15 @@
         <v>545</v>
       </c>
       <c r="G361">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="H361">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J361">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
     </row>
@@ -15178,15 +15274,15 @@
         <v>503</v>
       </c>
       <c r="G362">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="H362">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J362">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
     </row>
@@ -15210,15 +15306,15 @@
         <v>619</v>
       </c>
       <c r="G363">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="H363">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J363">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
     </row>
@@ -15242,15 +15338,15 @@
         <v>135</v>
       </c>
       <c r="G364">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="H364">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J364">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
     </row>
@@ -15274,15 +15370,15 @@
         <v>803</v>
       </c>
       <c r="G365">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H365">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J365">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
     </row>
@@ -15306,11 +15402,11 @@
         <v>736</v>
       </c>
       <c r="G366">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="H366">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="I366"/>
@@ -15335,11 +15431,11 @@
         <v>345</v>
       </c>
       <c r="G367">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H367">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="I367"/>
@@ -15364,15 +15460,15 @@
         <v>899</v>
       </c>
       <c r="G368">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H368">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J368">
-        <f t="shared" ref="J368:J370" si="68">IF(I368=G368,1,0)</f>
+        <f t="shared" ref="J368:J370" si="72">IF(I368=G368,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -15396,15 +15492,15 @@
         <v>476</v>
       </c>
       <c r="G369">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H369">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J369">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
     </row>
@@ -15428,15 +15524,15 @@
         <v>823</v>
       </c>
       <c r="G370">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H370">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J370">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
     </row>
@@ -15460,11 +15556,11 @@
         <v>8</v>
       </c>
       <c r="G371">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H371">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="I371"/>
@@ -15489,15 +15585,15 @@
         <v>108</v>
       </c>
       <c r="G372">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H372">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J372">
-        <f t="shared" ref="J372:J377" si="69">IF(I372=G372,1,0)</f>
+        <f t="shared" ref="J372:J377" si="73">IF(I372=G372,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -15521,15 +15617,15 @@
         <v>64</v>
       </c>
       <c r="G373">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H373">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J373">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
     </row>
@@ -15553,15 +15649,15 @@
         <v>431</v>
       </c>
       <c r="G374">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H374">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J374">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
     </row>
@@ -15585,15 +15681,15 @@
         <v>882</v>
       </c>
       <c r="G375">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H375">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J375">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
     </row>
@@ -15617,15 +15713,15 @@
         <v>145</v>
       </c>
       <c r="G376">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="H376">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J376">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
@@ -15649,15 +15745,15 @@
         <v>854</v>
       </c>
       <c r="G377">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H377">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J377">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
     </row>
@@ -15681,11 +15777,11 @@
         <v>920</v>
       </c>
       <c r="G378">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H378">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="I378"/>
@@ -15710,15 +15806,15 @@
         <v>238</v>
       </c>
       <c r="G379">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="H379">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J379">
-        <f>IF(I379=G379,1,0)</f>
+        <f t="shared" ref="J379" si="74">IF(I379=G379,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -15742,11 +15838,11 @@
         <v>282</v>
       </c>
       <c r="G380">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H380">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="I380"/>
@@ -15771,15 +15867,15 @@
         <v>694</v>
       </c>
       <c r="G381">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H381">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J381">
-        <f t="shared" ref="J381:J384" si="70">IF(I381=G381,1,0)</f>
+        <f t="shared" ref="J381:J384" si="75">IF(I381=G381,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -15803,15 +15899,15 @@
         <v>367</v>
       </c>
       <c r="G382">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H382">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J382">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>1</v>
       </c>
     </row>
@@ -15835,15 +15931,15 @@
         <v>707</v>
       </c>
       <c r="G383">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H383">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J383">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>1</v>
       </c>
     </row>
@@ -15867,15 +15963,15 @@
         <v>396</v>
       </c>
       <c r="G384">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H384">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J384">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>1</v>
       </c>
     </row>
@@ -15899,11 +15995,11 @@
         <v>414</v>
       </c>
       <c r="G385">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H385">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="I385"/>
@@ -15928,15 +16024,15 @@
         <v>647</v>
       </c>
       <c r="G386">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="H386">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J386">
-        <f t="shared" ref="J386:J388" si="71">IF(I386=G386,1,0)</f>
+        <f t="shared" ref="J386:J388" si="76">IF(I386=G386,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -15960,15 +16056,15 @@
         <v>520</v>
       </c>
       <c r="G387">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="H387">
-        <f t="shared" ref="H387:H450" si="72">IF(G387=C387,1,0)</f>
+        <f t="shared" ref="H387:H450" si="77">IF(G387=C387,1,0)</f>
         <v>0</v>
       </c>
       <c r="J387">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
     </row>
@@ -15992,15 +16088,15 @@
         <v>110</v>
       </c>
       <c r="G388">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="H388">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J388">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
     </row>
@@ -16024,11 +16120,11 @@
         <v>878</v>
       </c>
       <c r="G389">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H389">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="I389"/>
@@ -16053,11 +16149,11 @@
         <v>796</v>
       </c>
       <c r="G390">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H390">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="I390"/>
@@ -16082,15 +16178,15 @@
         <v>70</v>
       </c>
       <c r="G391">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H391">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J391">
-        <f>IF(I391=G391,1,0)</f>
+        <f t="shared" ref="J391" si="78">IF(I391=G391,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -16114,11 +16210,11 @@
         <v>728</v>
       </c>
       <c r="G392">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H392">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="I392"/>
@@ -16143,15 +16239,15 @@
         <v>244</v>
       </c>
       <c r="G393">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H393">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J393">
-        <f>IF(I393=G393,1,0)</f>
+        <f t="shared" ref="J393" si="79">IF(I393=G393,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -16175,11 +16271,11 @@
         <v>23</v>
       </c>
       <c r="G394">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H394">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="I394"/>
@@ -16204,15 +16300,15 @@
         <v>56</v>
       </c>
       <c r="G395">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="H395">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J395">
-        <f t="shared" ref="J395:J396" si="73">IF(I395=G395,1,0)</f>
+        <f t="shared" ref="J395:J396" si="80">IF(I395=G395,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16236,15 +16332,15 @@
         <v>383</v>
       </c>
       <c r="G396">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H396">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J396">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
     </row>
@@ -16268,11 +16364,11 @@
         <v>277</v>
       </c>
       <c r="G397">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H397">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="I397"/>
@@ -16297,15 +16393,15 @@
         <v>724</v>
       </c>
       <c r="G398">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H398">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J398">
-        <f t="shared" ref="J398:J409" si="74">IF(I398=G398,1,0)</f>
+        <f t="shared" ref="J398:J409" si="81">IF(I398=G398,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -16329,15 +16425,15 @@
         <v>901</v>
       </c>
       <c r="G399">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H399">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J399">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
     </row>
@@ -16361,15 +16457,15 @@
         <v>732</v>
       </c>
       <c r="G400">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H400">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J400">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
     </row>
@@ -16393,15 +16489,15 @@
         <v>343</v>
       </c>
       <c r="G401">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H401">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J401">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
     </row>
@@ -16425,15 +16521,15 @@
         <v>416</v>
       </c>
       <c r="G402">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H402">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J402">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
     </row>
@@ -16457,15 +16553,15 @@
         <v>379</v>
       </c>
       <c r="G403">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H403">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J403">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
     </row>
@@ -16489,15 +16585,15 @@
         <v>653</v>
       </c>
       <c r="G404">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H404">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J404">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
     </row>
@@ -16521,15 +16617,15 @@
         <v>507</v>
       </c>
       <c r="G405">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="H405">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J405">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
     </row>
@@ -16553,15 +16649,15 @@
         <v>76</v>
       </c>
       <c r="G406">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="H406">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J406">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
     </row>
@@ -16585,15 +16681,15 @@
         <v>129</v>
       </c>
       <c r="G407">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="H407">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J407">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
     </row>
@@ -16617,15 +16713,15 @@
         <v>866</v>
       </c>
       <c r="G408">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="H408">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J408">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
     </row>
@@ -16649,15 +16745,15 @@
         <v>133</v>
       </c>
       <c r="G409">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H409">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J409">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
     </row>
@@ -16681,11 +16777,11 @@
         <v>301</v>
       </c>
       <c r="G410">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H410">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="I410"/>
@@ -16710,15 +16806,15 @@
         <v>219</v>
       </c>
       <c r="G411">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H411">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J411">
-        <f t="shared" ref="J411:J414" si="75">IF(I411=G411,1,0)</f>
+        <f t="shared" ref="J411:J414" si="82">IF(I411=G411,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -16742,15 +16838,15 @@
         <v>25</v>
       </c>
       <c r="G412">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H412">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J412">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
     </row>
@@ -16774,15 +16870,15 @@
         <v>135</v>
       </c>
       <c r="G413">
-        <f t="shared" ref="G413:G419" si="76">IF(E413="negative",0,IF(E413="positive",1,-1))</f>
+        <f t="shared" ref="G413:G419" si="83">IF(E413="negative",0,IF(E413="positive",1,-1))</f>
         <v>-1</v>
       </c>
       <c r="H413">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J413">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
     </row>
@@ -16806,15 +16902,15 @@
         <v>588</v>
       </c>
       <c r="G414">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>1</v>
       </c>
       <c r="H414">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J414">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
     </row>
@@ -16838,11 +16934,11 @@
         <v>363</v>
       </c>
       <c r="G415">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="H415">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="I415"/>
@@ -16867,15 +16963,15 @@
         <v>821</v>
       </c>
       <c r="G416">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="H416">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J416">
-        <f t="shared" ref="J416:J419" si="77">IF(I416=G416,1,0)</f>
+        <f t="shared" ref="J416:J419" si="84">IF(I416=G416,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -16899,15 +16995,15 @@
         <v>38</v>
       </c>
       <c r="G417">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>1</v>
       </c>
       <c r="H417">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J417">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
     </row>
@@ -16931,15 +17027,15 @@
         <v>518</v>
       </c>
       <c r="G418">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="H418">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J418">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
     </row>
@@ -16963,15 +17059,15 @@
         <v>284</v>
       </c>
       <c r="G419">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>1</v>
       </c>
       <c r="H419">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J419">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
     </row>
@@ -16995,11 +17091,11 @@
         <v>469</v>
       </c>
       <c r="G420">
-        <f t="shared" ref="G420:G423" si="78">IF(E420="negative",0,IF(E420="positive",1,-1))</f>
+        <f t="shared" ref="G420:G423" si="85">IF(E420="negative",0,IF(E420="positive",1,-1))</f>
         <v>0</v>
       </c>
       <c r="H420">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="I420"/>
@@ -17024,15 +17120,15 @@
         <v>586</v>
       </c>
       <c r="G421">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v>1</v>
       </c>
       <c r="H421">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J421">
-        <f t="shared" ref="J421:J424" si="79">IF(I421=G421,1,0)</f>
+        <f t="shared" ref="J421:J424" si="86">IF(I421=G421,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -17056,15 +17152,15 @@
         <v>520</v>
       </c>
       <c r="G422">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v>-1</v>
       </c>
       <c r="H422">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J422">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
     </row>
@@ -17088,15 +17184,15 @@
         <v>389</v>
       </c>
       <c r="G423">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="H423">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J423">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>1</v>
       </c>
     </row>
@@ -17120,15 +17216,15 @@
         <v>104</v>
       </c>
       <c r="G424">
-        <f t="shared" ref="G424:G465" si="80">IF(E424="negative",0,IF(E424="positive",1,-1))</f>
+        <f t="shared" ref="G424:G465" si="87">IF(E424="negative",0,IF(E424="positive",1,-1))</f>
         <v>-1</v>
       </c>
       <c r="H424">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J424">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
     </row>
@@ -17152,11 +17248,11 @@
         <v>781</v>
       </c>
       <c r="G425">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="H425">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="I425"/>
@@ -17181,11 +17277,11 @@
         <v>472</v>
       </c>
       <c r="G426">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="H426">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="I426"/>
@@ -17210,15 +17306,15 @@
         <v>135</v>
       </c>
       <c r="G427">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>-1</v>
       </c>
       <c r="H427">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J427">
-        <f t="shared" ref="J427:J428" si="81">IF(I427=G427,1,0)</f>
+        <f t="shared" ref="J427:J428" si="88">IF(I427=G427,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -17242,15 +17338,15 @@
         <v>858</v>
       </c>
       <c r="G428">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H428">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J428">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>1</v>
       </c>
     </row>
@@ -17274,11 +17370,11 @@
         <v>649</v>
       </c>
       <c r="G429">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H429">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="I429"/>
@@ -17303,15 +17399,15 @@
         <v>154</v>
       </c>
       <c r="G430">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H430">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J430">
-        <f t="shared" ref="J430:J431" si="82">IF(I430=G430,1,0)</f>
+        <f t="shared" ref="J430:J431" si="89">IF(I430=G430,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -17335,15 +17431,15 @@
         <v>615</v>
       </c>
       <c r="G431">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H431">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J431">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>1</v>
       </c>
     </row>
@@ -17367,11 +17463,11 @@
         <v>501</v>
       </c>
       <c r="G432">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H432">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="I432"/>
@@ -17396,15 +17492,15 @@
         <v>856</v>
       </c>
       <c r="G433">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H433">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J433">
-        <f t="shared" ref="J433:J438" si="83">IF(I433=G433,1,0)</f>
+        <f t="shared" ref="J433:J438" si="90">IF(I433=G433,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -17428,15 +17524,15 @@
         <v>492</v>
       </c>
       <c r="G434">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H434">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J434">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>1</v>
       </c>
     </row>
@@ -17460,15 +17556,15 @@
         <v>610</v>
       </c>
       <c r="G435">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H435">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J435">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>1</v>
       </c>
     </row>
@@ -17492,15 +17588,15 @@
         <v>907</v>
       </c>
       <c r="G436">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H436">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J436">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>1</v>
       </c>
     </row>
@@ -17524,15 +17620,15 @@
         <v>528</v>
       </c>
       <c r="G437">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="H437">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J437">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
     </row>
@@ -17556,15 +17652,15 @@
         <v>860</v>
       </c>
       <c r="G438">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="H438">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J438">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
     </row>
@@ -17588,11 +17684,11 @@
         <v>414</v>
       </c>
       <c r="G439">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H439">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="I439"/>
@@ -17617,15 +17713,15 @@
         <v>541</v>
       </c>
       <c r="G440">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H440">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J440">
-        <f t="shared" ref="J440:J448" si="84">IF(I440=G440,1,0)</f>
+        <f t="shared" ref="J440:J448" si="91">IF(I440=G440,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -17649,15 +17745,15 @@
         <v>72</v>
       </c>
       <c r="G441">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H441">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J441">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>1</v>
       </c>
     </row>
@@ -17681,15 +17777,15 @@
         <v>437</v>
       </c>
       <c r="G442">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="H442">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J442">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
     </row>
@@ -17713,15 +17809,15 @@
         <v>76</v>
       </c>
       <c r="G443">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>-1</v>
       </c>
       <c r="H443">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J443">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
     </row>
@@ -17745,15 +17841,15 @@
         <v>621</v>
       </c>
       <c r="G444">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H444">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J444">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>1</v>
       </c>
     </row>
@@ -17777,15 +17873,15 @@
         <v>762</v>
       </c>
       <c r="G445">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="H445">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J445">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
     </row>
@@ -17809,15 +17905,15 @@
         <v>165</v>
       </c>
       <c r="G446">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H446">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J446">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>1</v>
       </c>
     </row>
@@ -17841,15 +17937,15 @@
         <v>36</v>
       </c>
       <c r="G447">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H447">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J447">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>1</v>
       </c>
     </row>
@@ -17873,15 +17969,15 @@
         <v>139</v>
       </c>
       <c r="G448">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H448">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J448">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>1</v>
       </c>
     </row>
@@ -17905,11 +18001,11 @@
         <v>915</v>
       </c>
       <c r="G449">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="H449">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="I449"/>
@@ -17934,15 +18030,15 @@
         <v>944</v>
       </c>
       <c r="G450">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H450">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J450">
-        <f>IF(I450=G450,1,0)</f>
+        <f t="shared" ref="J450" si="92">IF(I450=G450,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -17966,11 +18062,11 @@
         <v>118</v>
       </c>
       <c r="G451">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H451">
-        <f t="shared" ref="H451:H499" si="85">IF(G451=C451,1,0)</f>
+        <f t="shared" ref="H451:H499" si="93">IF(G451=C451,1,0)</f>
         <v>1</v>
       </c>
       <c r="I451"/>
@@ -17995,11 +18091,11 @@
         <v>561</v>
       </c>
       <c r="G452">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H452">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
       <c r="I452"/>
@@ -18024,11 +18120,11 @@
         <v>163</v>
       </c>
       <c r="G453">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H453">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
       <c r="I453"/>
@@ -18053,15 +18149,15 @@
         <v>663</v>
       </c>
       <c r="G454">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H454">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J454">
-        <f t="shared" ref="J454:J455" si="86">IF(I454=G454,1,0)</f>
+        <f t="shared" ref="J454:J455" si="94">IF(I454=G454,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -18085,15 +18181,15 @@
         <v>704</v>
       </c>
       <c r="G455">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H455">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J455">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>1</v>
       </c>
     </row>
@@ -18117,11 +18213,11 @@
         <v>684</v>
       </c>
       <c r="G456">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H456">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
       <c r="I456"/>
@@ -18146,15 +18242,15 @@
         <v>564</v>
       </c>
       <c r="G457">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H457">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J457">
-        <f t="shared" ref="J457:J469" si="87">IF(I457=G457,1,0)</f>
+        <f t="shared" ref="J457:J469" si="95">IF(I457=G457,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -18178,15 +18274,15 @@
         <v>74</v>
       </c>
       <c r="G458">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H458">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J458">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>1</v>
       </c>
     </row>
@@ -18210,15 +18306,15 @@
         <v>32</v>
       </c>
       <c r="G459">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>-1</v>
       </c>
       <c r="H459">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J459">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
     </row>
@@ -18242,15 +18338,15 @@
         <v>391</v>
       </c>
       <c r="G460">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H460">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J460">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>1</v>
       </c>
     </row>
@@ -18274,15 +18370,15 @@
         <v>104</v>
       </c>
       <c r="G461">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>-1</v>
       </c>
       <c r="H461">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J461">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
     </row>
@@ -18306,15 +18402,15 @@
         <v>32</v>
       </c>
       <c r="G462">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>-1</v>
       </c>
       <c r="H462">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J462">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
     </row>
@@ -18338,15 +18434,15 @@
         <v>373</v>
       </c>
       <c r="G463">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H463">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J463">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>1</v>
       </c>
     </row>
@@ -18370,15 +18466,15 @@
         <v>779</v>
       </c>
       <c r="G464">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H464">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J464">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>1</v>
       </c>
     </row>
@@ -18402,15 +18498,15 @@
         <v>435</v>
       </c>
       <c r="G465">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="H465">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J465">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
     </row>
@@ -18434,15 +18530,15 @@
         <v>554</v>
       </c>
       <c r="G466">
-        <f t="shared" ref="G466:G499" si="88">IF(E466="negative",0,IF(E466="positive",1,-1))</f>
+        <f t="shared" ref="G466:G499" si="96">IF(E466="negative",0,IF(E466="positive",1,-1))</f>
         <v>0</v>
       </c>
       <c r="H466">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J466">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>1</v>
       </c>
     </row>
@@ -18466,15 +18562,15 @@
         <v>135</v>
       </c>
       <c r="G467">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>-1</v>
       </c>
       <c r="H467">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J467">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
     </row>
@@ -18498,15 +18594,15 @@
         <v>467</v>
       </c>
       <c r="G468">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="H468">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J468">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
     </row>
@@ -18530,15 +18626,15 @@
         <v>429</v>
       </c>
       <c r="G469">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H469">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J469">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>1</v>
       </c>
     </row>
@@ -18562,11 +18658,11 @@
         <v>441</v>
       </c>
       <c r="G470">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H470">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
       <c r="I470"/>
@@ -18591,15 +18687,15 @@
         <v>539</v>
       </c>
       <c r="G471">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H471">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J471">
-        <f t="shared" ref="J471:J473" si="89">IF(I471=G471,1,0)</f>
+        <f t="shared" ref="J471:J473" si="97">IF(I471=G471,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -18623,15 +18719,15 @@
         <v>526</v>
       </c>
       <c r="G472">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H472">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J472">
-        <f t="shared" si="89"/>
+        <f t="shared" si="97"/>
         <v>1</v>
       </c>
     </row>
@@ -18655,15 +18751,15 @@
         <v>594</v>
       </c>
       <c r="G473">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H473">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J473">
-        <f t="shared" si="89"/>
+        <f t="shared" si="97"/>
         <v>1</v>
       </c>
     </row>
@@ -18687,11 +18783,11 @@
         <v>341</v>
       </c>
       <c r="G474">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H474">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
       <c r="I474"/>
@@ -18716,15 +18812,15 @@
         <v>167</v>
       </c>
       <c r="G475">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="H475">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J475">
-        <f t="shared" ref="J475:J477" si="90">IF(I475=G475,1,0)</f>
+        <f t="shared" ref="J475:J477" si="98">IF(I475=G475,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18748,15 +18844,15 @@
         <v>459</v>
       </c>
       <c r="G476">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>-1</v>
       </c>
       <c r="H476">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J476">
-        <f t="shared" si="90"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
     </row>
@@ -18780,15 +18876,15 @@
         <v>76</v>
       </c>
       <c r="G477">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>-1</v>
       </c>
       <c r="H477">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J477">
-        <f t="shared" si="90"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
     </row>
@@ -18812,11 +18908,11 @@
         <v>250</v>
       </c>
       <c r="G478">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H478">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
       <c r="I478"/>
@@ -18841,15 +18937,15 @@
         <v>418</v>
       </c>
       <c r="G479">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H479">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J479">
-        <f t="shared" ref="J479:J480" si="91">IF(I479=G479,1,0)</f>
+        <f t="shared" ref="J479:J480" si="99">IF(I479=G479,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -18873,15 +18969,15 @@
         <v>874</v>
       </c>
       <c r="G480">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H480">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J480">
-        <f t="shared" si="91"/>
+        <f t="shared" si="99"/>
         <v>1</v>
       </c>
     </row>
@@ -18905,11 +19001,11 @@
         <v>714</v>
       </c>
       <c r="G481">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H481">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
       <c r="I481"/>
@@ -18934,15 +19030,15 @@
         <v>96</v>
       </c>
       <c r="G482">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H482">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J482">
-        <f t="shared" ref="J482:J486" si="92">IF(I482=G482,1,0)</f>
+        <f t="shared" ref="J482:J486" si="100">IF(I482=G482,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -18966,15 +19062,15 @@
         <v>120</v>
       </c>
       <c r="G483">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>-1</v>
       </c>
       <c r="H483">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J483">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
     </row>
@@ -18998,15 +19094,15 @@
         <v>337</v>
       </c>
       <c r="G484">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H484">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J484">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>1</v>
       </c>
     </row>
@@ -19030,15 +19126,15 @@
         <v>602</v>
       </c>
       <c r="G485">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H485">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J485">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>1</v>
       </c>
     </row>
@@ -19062,15 +19158,15 @@
         <v>402</v>
       </c>
       <c r="G486">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H486">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J486">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>1</v>
       </c>
     </row>
@@ -19094,11 +19190,11 @@
         <v>425</v>
       </c>
       <c r="G487">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H487">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
       <c r="I487"/>
@@ -19123,15 +19219,15 @@
         <v>530</v>
       </c>
       <c r="G488">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H488">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J488">
-        <f t="shared" ref="J488:J492" si="93">IF(I488=G488,1,0)</f>
+        <f t="shared" ref="J488:J492" si="101">IF(I488=G488,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -19155,15 +19251,15 @@
         <v>21</v>
       </c>
       <c r="G489">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="H489">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J489">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
     </row>
@@ -19187,15 +19283,15 @@
         <v>365</v>
       </c>
       <c r="G490">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H490">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J490">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v>1</v>
       </c>
     </row>
@@ -19219,15 +19315,15 @@
         <v>149</v>
       </c>
       <c r="G491">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H491">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J491">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v>1</v>
       </c>
     </row>
@@ -19251,15 +19347,15 @@
         <v>299</v>
       </c>
       <c r="G492">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H492">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J492">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v>1</v>
       </c>
     </row>
@@ -19283,11 +19379,11 @@
         <v>242</v>
       </c>
       <c r="G493">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H493">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
       <c r="I493"/>
@@ -19312,15 +19408,15 @@
         <v>596</v>
       </c>
       <c r="G494">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H494">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J494">
-        <f t="shared" ref="J494:J496" si="94">IF(I494=G494,1,0)</f>
+        <f t="shared" ref="J494:J496" si="102">IF(I494=G494,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -19344,15 +19440,15 @@
         <v>635</v>
       </c>
       <c r="G495">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="H495">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J495">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
     </row>
@@ -19376,15 +19472,15 @@
         <v>617</v>
       </c>
       <c r="G496">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H496">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J496">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>1</v>
       </c>
     </row>
@@ -19408,11 +19504,11 @@
         <v>909</v>
       </c>
       <c r="G497">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="H497">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
       <c r="I497"/>
@@ -19437,15 +19533,15 @@
         <v>135</v>
       </c>
       <c r="G498">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H498">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J498">
-        <f t="shared" ref="J498:J499" si="95">IF(I498=G498,1,0)</f>
+        <f t="shared" ref="J498:J499" si="103">IF(I498=G498,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -19469,15 +19565,15 @@
         <v>631</v>
       </c>
       <c r="G499">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>-1</v>
       </c>
       <c r="H499">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J499">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
     </row>
